--- a/data/trans_camb/P32-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,97</t>
+          <t>1,09; 7,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,09</t>
+          <t>1,66; 8,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 7,53</t>
+          <t>0,84; 7,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 7,71</t>
+          <t>-0,36; 7,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 8,21</t>
+          <t>0,59; 8,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,06</t>
+          <t>-0,22; 6,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,55</t>
+          <t>1,23; 6,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,95</t>
+          <t>1,92; 6,94</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,73</t>
+          <t>1,2; 6,07</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 1347,51</t>
+          <t>11,36; 1496,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,0; 1267,3</t>
+          <t>16,99; 1828,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,72; 1135,6</t>
+          <t>6,98; 1456,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -821,17 +821,17 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,31; 1400,43</t>
+          <t>35,29; 1077,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,59; 1282,18</t>
+          <t>47,95; 1122,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>15,5; 1020,31</t>
+          <t>31,6; 1211,14</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,53; 8,43</t>
+          <t>0,62; 8,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,32</t>
+          <t>-0,22; 6,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 5,37</t>
+          <t>-1,08; 4,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 6,59</t>
+          <t>-0,99; 7,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 6,27</t>
+          <t>-0,51; 6,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,03</t>
+          <t>-0,38; 6,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 6,57</t>
+          <t>0,8; 6,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,01</t>
+          <t>0,63; 5,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 4,38</t>
+          <t>0,04; 4,41</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 1254,71</t>
+          <t>-5,99; 1443,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 1042,65</t>
+          <t>-34,06; 1006,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,53; 922,97</t>
+          <t>-46,54; 714,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,87; —</t>
+          <t>-69,74; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,41; —</t>
+          <t>-47,77; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,85; 752,46</t>
+          <t>12,01; 891,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 663,33</t>
+          <t>10,68; 731,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-21,5; 550,91</t>
+          <t>-12,51; 573,12</t>
         </is>
       </c>
     </row>
@@ -1117,27 +1117,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 5,61</t>
+          <t>-0,72; 5,47</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,22</t>
+          <t>-2,52; 3,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 7,37</t>
+          <t>-0,01; 7,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 4,76</t>
+          <t>-5,53; 4,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 11,76</t>
+          <t>-2,31; 12,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 5,26</t>
+          <t>-0,64; 4,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,54</t>
+          <t>-1,58; 3,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 6,57</t>
+          <t>-0,23; 6,0</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 266,24</t>
+          <t>-23,12; 259,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,09; 175,79</t>
+          <t>-58,37; 165,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 388,16</t>
+          <t>-9,35; 374,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,17 +1253,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 263,55</t>
+          <t>-21,41; 231,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-47,58; 196,53</t>
+          <t>-42,71; 187,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,64; 315,37</t>
+          <t>-12,13; 306,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,86</t>
+          <t>1,84; 6,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 4,56</t>
+          <t>-0,18; 4,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,51; 6,25</t>
+          <t>0,2; 6,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,85</t>
+          <t>-2,62; 2,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,23</t>
+          <t>-1,9; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 1,25</t>
+          <t>-3,67; 1,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,22</t>
+          <t>1,41; 5,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,16</t>
+          <t>-0,17; 3,49</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 3,39</t>
+          <t>-1,36; 3,53</t>
         </is>
       </c>
     </row>
@@ -1439,17 +1439,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>47,58; 314,13</t>
+          <t>42,09; 322,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 212,55</t>
+          <t>-7,81; 203,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,76; 270,26</t>
+          <t>1,62; 267,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1459,27 +1459,27 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-81,67; —</t>
+          <t>-72,32; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>31,87; 261,42</t>
+          <t>33,93; 244,44</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,52; 159,64</t>
+          <t>-6,61; 195,76</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-39,9; 154,27</t>
+          <t>-42,51; 163,87</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 5,84</t>
+          <t>-1,17; 5,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 6,32</t>
+          <t>-0,75; 6,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,41; 10,33</t>
+          <t>1,3; 10,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 1,85</t>
+          <t>-6,59; 1,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 0,16</t>
+          <t>-7,69; -0,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 3,11</t>
+          <t>-5,16; 3,12</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,46</t>
+          <t>-2,13; 3,16</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 3,04</t>
+          <t>-2,3; 3,06</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,06; 6,52</t>
+          <t>0,12; 6,42</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,34; 500,34</t>
+          <t>-34,42; 561,13</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 520,16</t>
+          <t>-30,74; 573,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>17,72; 1109,74</t>
+          <t>2,99; 1090,73</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-90,75; 158,91</t>
+          <t>-90,51; 156,84</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 70,36</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-72,91; 242,06</t>
+          <t>-77,53; 193,64</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-45,26; 189,06</t>
+          <t>-46,8; 190,88</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,33; 162,08</t>
+          <t>-50,69; 157,84</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 411,29</t>
+          <t>-2,61; 337,3</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>4,42; 17,91</t>
+          <t>4,21; 17,01</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,6</t>
+          <t>-0,63; 10,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 19,76</t>
+          <t>-3,0; 22,95</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 3,02</t>
+          <t>-0,52; 2,91</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,32</t>
+          <t>1,49; 7,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 9,14</t>
+          <t>-0,86; 8,89</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,4; 6,86</t>
+          <t>1,66; 6,99</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,53; 6,97</t>
+          <t>1,73; 6,99</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,11</t>
+          <t>-0,83; 10,63</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>51,83; 971,01</t>
+          <t>44,14; 853,21</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-23,02; 590,63</t>
+          <t>-22,64; 596,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1275,26</t>
+          <t>-100,0; 1297,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,17 +1901,17 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,43; 734,57</t>
+          <t>49,12; 906,19</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>43,68; 757,29</t>
+          <t>38,79; 838,19</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-57,0; 981,42</t>
+          <t>-50,7; 1094,78</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,43</t>
+          <t>2,65; 5,35</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,82</t>
+          <t>1,31; 3,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,36</t>
+          <t>1,95; 5,13</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 2,15</t>
+          <t>-0,63; 1,98</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,07</t>
+          <t>0,43; 3,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,01</t>
+          <t>-0,91; 2,03</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,96</t>
+          <t>1,88; 3,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,34</t>
+          <t>1,33; 3,2</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,55</t>
+          <t>0,97; 3,43</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>80,83; 245,95</t>
+          <t>81,4; 240,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>41,19; 186,23</t>
+          <t>39,4; 167,72</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>60,78; 245,75</t>
+          <t>56,14; 223,4</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 240,44</t>
+          <t>-33,64; 201,45</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>18,58; 343,94</t>
+          <t>11,12; 328,41</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 196,39</t>
+          <t>-45,33; 211,55</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>67,51; 208,65</t>
+          <t>67,72; 202,72</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>43,03; 174,93</t>
+          <t>48,94; 173,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>34,88; 180,56</t>
+          <t>34,58; 173,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P32-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P32-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
